--- a/math132a-project1.xlsx
+++ b/math132a-project1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teo/Desktop/math132a-project1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teo/Desktop/math132a-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87609A8E-5981-5E4B-B4AA-FE1F98B58D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008CAE15-3537-994E-AE10-280CE08733E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{E30710CF-9618-7548-BCA7-EE938A76088E}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="25440" windowHeight="14900" activeTab="1" xr2:uid="{E30710CF-9618-7548-BCA7-EE938A76088E}"/>
   </bookViews>
   <sheets>
     <sheet name="Limits Report 1" sheetId="2" r:id="rId1"/>
@@ -241,19 +241,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA84292B-7498-244A-99EA-0A8DC8A26420}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -629,7 +627,7 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>18500000</v>
       </c>
     </row>
@@ -683,19 +681,19 @@
       <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>5000</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>85</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>250</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>18835</v>
       </c>
     </row>
@@ -706,19 +704,19 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="2">
         <v>110</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="2">
         <v>398.5</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="2">
         <v>20035</v>
       </c>
     </row>
@@ -731,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9B3A3A-EEFB-B840-A984-40C3EAE6826F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,6 +818,10 @@
       <c r="A13">
         <v>3</v>
       </c>
+      <c r="B13">
+        <f>B3</f>
+        <v>0</v>
+      </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>

--- a/math132a-project1.xlsx
+++ b/math132a-project1.xlsx
@@ -8,55 +8,210 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teo/Desktop/math132a-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008CAE15-3537-994E-AE10-280CE08733E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699A691-A655-474F-8828-DD548AE75A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="25440" windowHeight="14900" activeTab="1" xr2:uid="{E30710CF-9618-7548-BCA7-EE938A76088E}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{E30710CF-9618-7548-BCA7-EE938A76088E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Limits Report 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Problem 8" sheetId="8" r:id="rId1"/>
+    <sheet name="Problem 6" sheetId="7" r:id="rId2"/>
+    <sheet name="Problem 4" sheetId="6" r:id="rId3"/>
+    <sheet name="Problem3" sheetId="5" r:id="rId4"/>
+    <sheet name="Problem2" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Problem 4'!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Problem 6'!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 8'!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Problem2!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Problem3!$B$2:$B$3</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$B$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$B$12</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Sheet1!$B$13</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Sheet1!$B$2:$B$3</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Problem 4'!$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Problem 6'!$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 8'!$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Problem2!$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Problem3!$B$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Problem 4'!$B$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Problem 6'!$B$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 8'!$B$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Problem2!$B$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Problem3!$B$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Problem 4'!$B$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Problem 6'!$B$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 8'!$B$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Problem2!$B$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Problem3!$B$13</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Problem 4'!$B$2:$B$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Problem 6'!$B$2:$B$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 8'!$B$2:$B$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Problem2!$B$2:$B$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Problem3!$B$2:$B$3</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$B$7</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Problem 4'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Problem 6'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 8'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Problem2!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Problem3!$B$7</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet1!$D$11</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet1!$D$12</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Sheet1!$D$13</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Problem 4'!$D$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Problem 6'!$D$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 8'!$D$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">Problem2!$D$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Problem3!$D$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Problem 4'!$D$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Problem 6'!$D$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 8'!$D$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">Problem2!$D$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Problem3!$D$12</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Problem 4'!$D$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Problem 6'!$D$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 8'!$D$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Problem2!$D$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Problem3!$D$13</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">"integer"</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">"integer"</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
@@ -108,76 +263,15 @@
   <si>
     <t>&lt;=</t>
   </si>
-  <si>
-    <t>Microsoft Excel 16.69 Limits Report</t>
-  </si>
-  <si>
-    <t>Worksheet: [math132a-project1.xlsx]Sheet1</t>
-  </si>
-  <si>
-    <t>Report Created: 2023/2/8 17:34:55</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Limit</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>$B$7</t>
-  </si>
-  <si>
-    <t>$B$2</t>
-  </si>
-  <si>
-    <t>$B$3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -199,59 +293,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,159 +612,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA84292B-7498-244A-99EA-0A8DC8A26420}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6ACCDE-9065-084B-B463-F90535BD2DA9}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2">
-        <v>18500000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>85</v>
-      </c>
-      <c r="I13" s="5">
-        <v>250</v>
-      </c>
-      <c r="J13" s="5">
-        <v>18835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B7">
+        <f>2800*B2+5300*B3</f>
+        <v>24032400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>6*B2+10.5*B3</f>
+        <v>48498</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>110</v>
-      </c>
-      <c r="I14" s="2">
-        <v>398.5</v>
-      </c>
-      <c r="J14" s="2">
-        <v>20035</v>
+      <c r="B12">
+        <f>4*B2+2*B3</f>
+        <v>14832</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f>B3</f>
+        <v>3500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
@@ -726,10 +721,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9B3A3A-EEFB-B840-A984-40C3EAE6826F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B203120D-233C-9C42-BE41-36472DCB9676}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -745,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -766,8 +761,8 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <f>3700*B2+5300*X2</f>
-        <v>18500000</v>
+        <f>3700*B2+5300*B3 - 500000</f>
+        <v>32082900</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -790,13 +785,13 @@
       </c>
       <c r="B11">
         <f>6*B2+10.5*B3</f>
-        <v>30000</v>
+        <v>60615</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>48500</v>
+        <v>60625</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -820,7 +815,334 @@
       </c>
       <c r="B13">
         <f>B3</f>
+        <v>4082</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>4200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972C7716-CA40-3E4A-9D47-7888FDF1AADF}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>3700*B2+5300*B3</f>
+        <v>30575000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>6*B2+10.5*B3</f>
+        <v>56250</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>60625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>4*B2+2*B3</f>
+        <v>20000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f>B3</f>
+        <v>3500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B069F0D9-6497-A145-9C54-C76CDAF23682}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>3700*B2+5300*B3-500000</f>
+        <v>26507700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>6*B2+10.5*B3</f>
+        <v>48495</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>4*B2+2*B3</f>
+        <v>20000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f>B3</f>
+        <v>2466</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>4200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9B3A3A-EEFB-B840-A984-40C3EAE6826F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>3700*B2+5300*B3</f>
+        <v>27007700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>6*B2+10.5*B3</f>
+        <v>48495</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>4*B2+2*B3</f>
+        <v>20000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f>B3</f>
+        <v>2466</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>

--- a/math132a-project1.xlsx
+++ b/math132a-project1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teo/Desktop/math132a-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699A691-A655-474F-8828-DD548AE75A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50D3EAD-F468-C54D-B22A-490E851BDE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{E30710CF-9618-7548-BCA7-EE938A76088E}"/>
   </bookViews>
@@ -616,7 +616,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1958</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,7 +653,7 @@
       </c>
       <c r="B7">
         <f>2800*B2+5300*B3</f>
-        <v>24032400</v>
+        <v>22934800</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -675,8 +675,8 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <f>6*B2+10.5*B3</f>
-        <v>48498</v>
+        <f>7.5*B2+10.5*B3</f>
+        <v>48495</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -691,7 +691,7 @@
       </c>
       <c r="B12">
         <f>4*B2+2*B3</f>
-        <v>14832</v>
+        <v>13264</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>

--- a/math132a-project1.xlsx
+++ b/math132a-project1.xlsx
@@ -8,208 +8,247 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teo/Desktop/math132a-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50D3EAD-F468-C54D-B22A-490E851BDE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B52FB-883A-E94C-A126-AACEC161153F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{E30710CF-9618-7548-BCA7-EE938A76088E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Problem 8" sheetId="8" r:id="rId1"/>
-    <sheet name="Problem 6" sheetId="7" r:id="rId2"/>
-    <sheet name="Problem 4" sheetId="6" r:id="rId3"/>
-    <sheet name="Problem3" sheetId="5" r:id="rId4"/>
-    <sheet name="Problem2" sheetId="1" r:id="rId5"/>
+    <sheet name="Problem 10" sheetId="10" r:id="rId1"/>
+    <sheet name="Problem 8" sheetId="8" r:id="rId2"/>
+    <sheet name="Problem 6" sheetId="7" r:id="rId3"/>
+    <sheet name="Problem 4" sheetId="6" r:id="rId4"/>
+    <sheet name="Problem3" sheetId="5" r:id="rId5"/>
+    <sheet name="Problem2" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'Problem 4'!$B$2:$B$3</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Problem 6'!$B$2:$B$3</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 8'!$B$2:$B$3</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">Problem2!$B$2:$B$3</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Problem3!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 10'!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Problem 4'!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Problem 6'!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Problem 8'!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">Problem2!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Problem3!$B$2:$B$3</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Problem 4'!$B$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Problem 6'!$B$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 8'!$B$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Problem2!$B$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Problem3!$B$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Problem 4'!$B$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Problem 6'!$B$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 8'!$B$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Problem2!$B$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Problem3!$B$12</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Problem 4'!$B$13</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Problem 6'!$B$13</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 8'!$B$13</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Problem2!$B$13</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Problem3!$B$13</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Problem 4'!$B$2:$B$3</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Problem 6'!$B$2:$B$3</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 8'!$B$2:$B$3</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Problem2!$B$2:$B$3</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Problem3!$B$2:$B$3</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 10'!$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Problem 4'!$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Problem 6'!$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Problem 8'!$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">Problem2!$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Problem3!$B$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 10'!$B$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Problem 4'!$B$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Problem 6'!$B$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Problem 8'!$B$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">Problem2!$B$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Problem3!$B$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 10'!$B$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Problem 4'!$B$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Problem 6'!$B$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Problem 8'!$B$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">Problem2!$B$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Problem3!$B$13</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 10'!$B$2:$B$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Problem 4'!$B$2:$B$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Problem 6'!$B$2:$B$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Problem 8'!$B$2:$B$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">Problem2!$B$2:$B$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Problem3!$B$2:$B$3</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'Problem 4'!$B$7</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Problem 6'!$B$7</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 8'!$B$7</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">Problem2!$B$7</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Problem3!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 10'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Problem 4'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Problem 6'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Problem 8'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">Problem2!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Problem3!$B$7</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="4" hidden="1">4</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Problem 4'!$D$11</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Problem 6'!$D$11</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 8'!$D$11</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">Problem2!$D$11</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Problem3!$D$11</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Problem 4'!$D$12</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Problem 6'!$D$12</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 8'!$D$12</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">Problem2!$D$12</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Problem3!$D$12</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Problem 4'!$D$13</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Problem 6'!$D$13</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 8'!$D$13</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Problem2!$D$13</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Problem3!$D$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 10'!$D$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Problem 4'!$D$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Problem 6'!$D$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Problem 8'!$D$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">Problem2!$D$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">Problem3!$D$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 10'!$D$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Problem 4'!$D$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Problem 6'!$D$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Problem 8'!$D$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">Problem2!$D$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">Problem3!$D$12</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 10'!$D$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Problem 4'!$D$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Problem 6'!$D$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Problem 8'!$D$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">Problem2!$D$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Problem3!$D$13</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">"integer"</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs4" localSheetId="4" hidden="1">"integer"</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">"integer"</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -232,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
   <si>
     <t>x1</t>
   </si>
@@ -262,6 +301,9 @@
   </si>
   <si>
     <t>&lt;=</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -612,11 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6ACCDE-9065-084B-B463-F90535BD2DA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC37E86-21DB-D44A-BE6E-F847CCFD36D4}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1566</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,7 +695,7 @@
       </c>
       <c r="B7">
         <f>2800*B2+5300*B3</f>
-        <v>22934800</v>
+        <v>24032400</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -675,8 +717,8 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <f>7.5*B2+10.5*B3</f>
-        <v>48495</v>
+        <f>6*B2+10.5*B3</f>
+        <v>48498</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -691,7 +733,7 @@
       </c>
       <c r="B12">
         <f>4*B2+2*B3</f>
-        <v>13264</v>
+        <v>14832</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -709,7 +751,7 @@
         <v>3500</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>3500</v>
@@ -721,6 +763,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6ACCDE-9065-084B-B463-F90535BD2DA9}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>2800*B2+5300*B3</f>
+        <v>22934800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>7.5*B2+10.5*B3</f>
+        <v>48495</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>4*B2+2*B3</f>
+        <v>13264</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f>B3</f>
+        <v>3500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B203120D-233C-9C42-BE41-36472DCB9676}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -829,7 +980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972C7716-CA40-3E4A-9D47-7888FDF1AADF}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -938,7 +1089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B069F0D9-6497-A145-9C54-C76CDAF23682}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1047,7 +1198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9B3A3A-EEFB-B840-A984-40C3EAE6826F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
